--- a/data/excel/curriculum/Subject.xlsx
+++ b/data/excel/curriculum/Subject.xlsx
@@ -967,11 +967,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ИЗО</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -979,11 +979,11 @@
         <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -993,7 +993,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1005,11 +1005,11 @@
         <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1019,11 +1019,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>ИЗО</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1031,33 +1031,33 @@
         <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Физическая культура</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1066,24 +1066,24 @@
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Музыка</t>
+          <t>Технология</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1092,24 +1092,24 @@
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ИЗО</t>
+          <t>Информатика</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1118,94 +1118,86 @@
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Физическая культура, ОБЖ</t>
+          <t>ИЗО</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>7</v>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Музыка</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
-        <v>8</v>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Творчество. Деятельность. Служение обществу (CAS)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
-        <v>8</v>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Творчество. Деятельность. Служение обществу (CAS)</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Алгебра и начала математического анализа, геометрия</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1223,11 +1215,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>189</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Алгебра и начала математического анализа, геометрия</t>
+        <v>188</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Индивидуальное исследование 
+(проект)/Дипломное сочинение 
+(Extended Essay)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1245,23 +1239,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>188</v>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Индивидуальное исследование 
-(проект)/Дипломное сочинение 
-(Extended Essay)</t>
+        <v>187</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Физическая культура</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1269,11 +1261,11 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Физическая культура и ОБЖ</t>
+          <t>Астрономия (ОЗО)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1291,11 +1283,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Астрономия (ОЗО)</t>
+          <t>Химия (ОЗО)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1313,11 +1305,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Химия (ОЗО)</t>
+          <t>Биология (ОЗО)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1335,11 +1327,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Биология (ОЗО)</t>
+          <t>Физика (ОЗО)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1357,11 +1349,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Физика (ОЗО)</t>
+          <t>Информатика (ОЗО)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1379,11 +1371,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Информатика (ОЗО)</t>
+          <t>История (ОЗО)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1401,11 +1393,11 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>История (ОЗО)</t>
+          <t>Обществознание (ОЗО)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1423,11 +1415,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Обществознание (ОЗО)</t>
+          <t>География (ОЗО)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1445,11 +1437,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>География (ОЗО)</t>
+          <t>Русский язык (ОЗО)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1467,17 +1459,17 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Русский язык (ОЗО)</t>
+          <t>Визуальные искусства (У)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1489,11 +1481,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Визуальные искусства (У)</t>
+          <t>Визуальные искусства (Б)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1511,17 +1503,17 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Визуальные искусства (Б)</t>
+          <t>Математика (У)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1533,11 +1525,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Математика (У)</t>
+          <t>Математика (Б)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1555,17 +1547,17 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Математика (Б)</t>
+          <t>Информатика (У)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1577,11 +1569,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Информатика (У)</t>
+          <t>Информатика (Б)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1599,11 +1591,11 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Информатика (Б)</t>
+          <t>Химия (У)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -1621,11 +1613,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Химия (У)</t>
+          <t>Химия (Б)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1643,11 +1635,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Химия (Б)</t>
+          <t>Физика (У)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1665,11 +1657,11 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Физика (У)</t>
+          <t>Физика (Б)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1687,11 +1679,11 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Физика (Б)</t>
+          <t>Биология (У)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -1709,11 +1701,11 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Биология (У)</t>
+          <t>Биология (Б)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1731,17 +1723,17 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Биология (Б)</t>
+          <t>Глобальная политика (У)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1753,11 +1745,11 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Глобальная политика (У)</t>
+          <t>Глобальная политика (Б)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1775,11 +1767,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Глобальная политика (Б)</t>
+          <t>Психология (У)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -1797,11 +1789,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Психология (У)</t>
+          <t>Психология (Б)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1819,11 +1811,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Психология (Б)</t>
+          <t>Бизнес и менеджмент (У)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1841,11 +1833,11 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Бизнес и менеджмент (У)</t>
+          <t>Бизнес и менеджмент (Б)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1863,11 +1855,11 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Бизнес и менеджмент (Б)</t>
+          <t>Теория Познания (Б)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -1885,11 +1877,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Теория Познания (Б)</t>
+          <t>Всемирная История (У)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1907,11 +1899,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Всемирная История (У)</t>
+          <t>Всемирная История (Б)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1929,11 +1921,11 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Всемирная История (Б)</t>
+          <t>Экономика (У)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1951,11 +1943,11 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Экономика (У)</t>
+          <t>Экономика (Б)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -1973,17 +1965,17 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Экономика (Б)</t>
+          <t>Второй иностранный язык (У)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1995,11 +1987,11 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Второй иностранный язык (У)</t>
+          <t>Второй иностранный язык (Б)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2017,11 +2009,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Второй иностранный язык (Б)</t>
+          <t>Английский язык Б (У)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2039,11 +2031,11 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Английский язык Б (У)</t>
+          <t>Английский язык Б (Б)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2061,17 +2053,17 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Английский язык Б (Б)</t>
+          <t>Родной язык и родная литература (У)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2083,11 +2075,11 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Родной язык и родная литература (У)</t>
+          <t>Родной язык и родная литература (Б)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -2105,11 +2097,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Родной язык и родная литература (Б)</t>
+          <t>Язык А: Литература (У)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -2127,11 +2119,11 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Язык А: Литература (У)</t>
+          <t>Язык А: Литература (Б)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -2149,21 +2141,21 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Язык А: Литература (Б)</t>
+          <t xml:space="preserve">Вокальный ансамбль </t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2171,11 +2163,11 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вокальный ансамбль </t>
+          <t>Сколково BAND</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2193,11 +2185,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Сколково BAND</t>
+          <t>ART&amp;DESIGN: Визуальные искусства</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2215,17 +2207,17 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ART&amp;DESIGN: Визуальные искусства</t>
+          <t>Курс общей физической подготовки</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2237,11 +2229,11 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Курс общей физической подготовки</t>
+          <t xml:space="preserve">Оздоровительное плавание </t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -2259,17 +2251,17 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оздоровительное плавание </t>
+          <t>Углубленное изучение/подготовка к олимпиадам: География</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2281,11 +2273,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: География</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Информатика</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2303,11 +2295,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Информатика</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Литература</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -2325,11 +2317,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Литература</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Русский язык</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -2347,11 +2339,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Русский язык</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: История</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2369,11 +2361,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: История</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Обществознание</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2391,11 +2383,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Обществознание</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Английский язык</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -2413,11 +2405,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Английский язык</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Физика</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -2435,11 +2427,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Физика</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Химия</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -2457,11 +2449,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Химия</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Биология</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -2479,11 +2471,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Биология</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: решение математических задач</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -2501,11 +2493,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: решение математических задач</t>
+          <t>Психология</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -2523,11 +2515,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Психология</t>
+          <t>Русская стилистика и риторика</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -2545,11 +2537,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Русская стилистика и риторика</t>
+          <t>Второй иностранный язык</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -2567,11 +2559,11 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Второй иностранный язык</t>
+          <t>Экономика</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -2589,11 +2581,11 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Экономика</t>
+          <t>Основы программирования</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -2611,11 +2603,11 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Основы программирования</t>
+          <t>Sk-инженерия</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -2633,11 +2625,11 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sk-инженерия</t>
+          <t>Индивидуальное исследование (проект)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -2655,21 +2647,21 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Индивидуальное исследование (проект)</t>
+          <t>Теория познания (Б)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -2677,11 +2669,11 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Теория познания (Б)</t>
+          <t>Практикум по английскому языку (Б)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -2699,17 +2691,17 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Практикум по английскому языку (Б)</t>
+          <t>Физическая культура (Б)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2721,17 +2713,17 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Физическая культура (Б)</t>
+          <t>Химия (У)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2743,11 +2735,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Химия (У)</t>
+          <t>Химия (Б)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -2765,11 +2757,11 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Химия (Б)</t>
+          <t>Астрономия (Б)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -2787,11 +2779,11 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Астрономия (Б)</t>
+          <t>Физика (У)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -2809,11 +2801,11 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Физика (У)</t>
+          <t>Физика (Б)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -2831,11 +2823,11 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Физика (Б)</t>
+          <t>Биология (У)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -2853,11 +2845,11 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Биология (У)</t>
+          <t>Биология (Б)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -2875,17 +2867,17 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Биология (Б)</t>
+          <t>Информатика (У)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2897,11 +2889,11 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Информатика (У)</t>
+          <t>Информатика (Б)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -2919,11 +2911,11 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Информатика (Б)</t>
+          <t>Математика (У)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -2941,11 +2933,11 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Математика (У)</t>
+          <t>Математика (Б)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -2963,17 +2955,17 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Математика (Б)</t>
+          <t>География (Б)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -2985,11 +2977,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>География (Б)</t>
+          <t>Обществознание (У)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -3007,11 +2999,11 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Обществознание (У)</t>
+          <t>Обществознание (Б)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -3029,11 +3021,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Обществознание (Б)</t>
+          <t>История (У)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -3051,11 +3043,11 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>История (У)</t>
+          <t>История (Б)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -3073,17 +3065,17 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>История (Б)</t>
+          <t>Английский язык (Б)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3095,17 +3087,17 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Английский язык (Б)</t>
+          <t>Родная литература (Б)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3117,11 +3109,11 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Родная литература (Б)</t>
+          <t>Родной язык (Б)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -3139,17 +3131,17 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Родной язык (Б)</t>
+          <t>Литература (У)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3161,11 +3153,11 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Литература (У)</t>
+          <t>Литература (Б)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -3183,11 +3175,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Литература (Б)</t>
+          <t>Русский язык (Б)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -3205,21 +3197,21 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Русский язык (Б)</t>
+          <t xml:space="preserve">Социально-исторический клуб «Время, события, люди» </t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -3227,11 +3219,11 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Социально-исторический клуб «Время, события, люди» </t>
+          <t>Развитие личностных способностей</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -3249,11 +3241,11 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Развитие личностных способностей</t>
+          <t>Дискуссионные вопросы истории</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -3271,11 +3263,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Дискуссионные вопросы истории</t>
+          <t>Современное общество: вызовы, задачи, перспективы</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -3293,17 +3285,17 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Современное общество: вызовы, задачи, перспективы</t>
+          <t>Шахматы</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3315,11 +3307,11 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Шахматы</t>
+          <t>ЛФК</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -3337,11 +3329,11 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ЛФК</t>
+          <t>Спортивные игры</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -3359,11 +3351,11 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Спортивные игры</t>
+          <t>Оздоровительное плавание</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -3381,17 +3373,17 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Оздоровительное плавание</t>
+          <t>Графика,  Диджитал дизайн</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3403,11 +3395,11 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Графика,  Диджитал дизайн</t>
+          <t>Фотоискусство</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -3425,11 +3417,11 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Фотоискусство</t>
+          <t>Живопись в дизайне, SK Среда</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -3447,11 +3439,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Живопись в дизайне, SK Среда</t>
+          <t>Скетчинг, Архитектура</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -3469,11 +3461,11 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Скетчинг, Архитектура</t>
+          <t>Театральная студия</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -3491,11 +3483,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Театральная студия</t>
+          <t>Эстрадно-джазовая студия</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -3513,11 +3505,11 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Эстрадно-джазовая студия</t>
+          <t>Эстрадная студия. «Ступень к успеху»</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -3535,11 +3527,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Эстрадная студия. «Ступень к успеху»</t>
+          <t>Вокальный ансамбль на иностранных языках</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -3557,11 +3549,11 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Вокальный ансамбль на иностранных языках</t>
+          <t>Многоголосное пение</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -3579,11 +3571,11 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Многоголосное пение</t>
+          <t>Музыкальный ансамбль</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -3601,11 +3593,11 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Музыкальный ансамбль</t>
+          <t>Персональный проек</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -3623,11 +3615,11 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Персональный проек</t>
+          <t>Экспериментальная физика</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -3645,11 +3637,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Экспериментальная физика</t>
+          <t>Практикум по химии</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -3667,11 +3659,11 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Практикум по химии</t>
+          <t>Химия и жизнь</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -3689,11 +3681,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Химия и жизнь</t>
+          <t>Sk-биомед</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -3711,11 +3703,11 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sk-биомед</t>
+          <t>Практическая биология</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -3733,11 +3725,11 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Практическая биология</t>
+          <t>Юный натуралист</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -3755,11 +3747,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Юный натуралист</t>
+          <t>Наука опытным путем</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -3777,11 +3769,11 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Наука опытным путем</t>
+          <t>Введение в естественные науки (на английском языке)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -3799,11 +3791,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Введение в естественные науки (на английском языке)</t>
+          <t>Основы компьютерной графики</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -3821,11 +3813,11 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Основы компьютерной графики</t>
+          <t>Сложные вопросы информатики</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -3843,11 +3835,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Сложные вопросы информатики</t>
+          <t>Sk-инженерия</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -3865,11 +3857,11 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sk-инженерия</t>
+          <t xml:space="preserve">Проектирование </t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -3887,11 +3879,11 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Проектирование </t>
+          <t>Академия Яндекса</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -3909,11 +3901,11 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Академия Яндекса</t>
+          <t>Основы программирования</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -3931,11 +3923,11 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Основы программирования</t>
+          <t>Sk-русский язык и литература</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -3953,11 +3945,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sk-русский язык и литература</t>
+          <t>Введение в языкознание</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -3975,11 +3967,11 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Введение в языкознание</t>
+          <t>Русская стилистика</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -3997,11 +3989,11 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Русская стилистика</t>
+          <t>Sk-математика</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -4019,11 +4011,11 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sk-математика</t>
+          <t>Решение математических задач</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -4041,17 +4033,17 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Решение математических задач</t>
+          <t>Мастерская начинающего автора</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4063,11 +4055,11 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Мастерская начинающего автора</t>
+          <t>Мастерская журналистики</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -4085,11 +4077,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Мастерская журналистики</t>
+          <t>Коммуникативный курс второго иностранного языка</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -4107,11 +4099,11 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Коммуникативный курс второго иностранного языка</t>
+          <t>Практический курс «Совершенствуй свой английский!»</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -4129,11 +4121,11 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Практический курс «Совершенствуй свой английский!»</t>
+          <t>История и культура англоязычных стран</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -4151,11 +4143,11 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>История и культура англоязычных стран</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -4169,7 +4161,9 @@
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">

--- a/data/excel/curriculum/Subject.xlsx
+++ b/data/excel/curriculum/Subject.xlsx
@@ -473,11 +473,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Родная литература</t>
+          <t>Литература</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -485,25 +485,29 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>base</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1323567475756784211</t>
+        </is>
+      </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Родной язык</t>
+          <t>Родная литература</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -525,11 +529,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Литература</t>
+          <t>Родной язык</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -537,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -570,18 +574,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1323567475756784210</t>
+        </is>
+      </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Второй ин. яз.: французский</t>
+          <t>Английский язык</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -589,25 +597,29 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>extra</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>base</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1323567475756784212</t>
+        </is>
+      </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Второй ин. яз.: немецкий</t>
+          <t>Второй ин. яз.: испанский</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -615,25 +627,29 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>extra</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1323567475756784215</t>
+        </is>
+      </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Второй ин. яз.: испанский</t>
+          <t>Второй ин. яз.: китайский</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -648,18 +664,22 @@
           <t>extra</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1345693867365529724</t>
+        </is>
+      </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Второй ин. яз.: китайский</t>
+          <t>Второй ин. яз.: немецкий</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -674,18 +694,22 @@
           <t>extra</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1323567475756784213</t>
+        </is>
+      </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>36</v>
+        <v>196</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Английский язык</t>
+          <t>Второй ин. яз.: французский</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -693,14 +717,18 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>base</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>extra</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1323567475756784214</t>
+        </is>
+      </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
@@ -726,18 +754,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1323567475756784185</t>
+        </is>
+      </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Обществознание</t>
+          <t>История</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -752,18 +784,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1323567475756784186</t>
+        </is>
+      </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>История России. Всеобщая история</t>
+          <t>Обществознание</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -778,18 +814,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1323567475756784184</t>
+        </is>
+      </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Химия</t>
+          <t>Биология</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -804,18 +844,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1323567475756784192</t>
+        </is>
+      </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Физика</t>
+          <t>Естествознание</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -830,18 +874,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1323567475756784191</t>
+        </is>
+      </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Биология</t>
+          <t>Физика</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -856,18 +904,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1323567475756784193</t>
+        </is>
+      </c>
       <c r="H16" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Естествознание</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -882,18 +934,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1323567475756784194</t>
+        </is>
+      </c>
       <c r="H17" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Геометрия</t>
+          <t>Алгебра</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -908,18 +964,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1323567475756784181</t>
+        </is>
+      </c>
       <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Алгебра</t>
+          <t>Геометрия</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -934,7 +994,11 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1323567475756784182</t>
+        </is>
+      </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
@@ -960,7 +1024,11 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1323567475756784183</t>
+        </is>
+      </c>
       <c r="H20" t="n">
         <v>5</v>
       </c>
@@ -986,18 +1054,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1330205300468115742</t>
+        </is>
+      </c>
       <c r="H21" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Музыка</t>
+          <t>Изобразительное искусство</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1012,18 +1084,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1323567475756784199</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ИЗО</t>
+          <t>Музыка</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1038,9 +1114,13 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1323567475756784198</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1064,18 +1144,22 @@
           <t>base</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1323567475756784203</t>
+        </is>
+      </c>
       <c r="H24" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Технология</t>
+          <t>Информатика</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1083,25 +1167,29 @@
         <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>base</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1323567475756784207</t>
+        </is>
+      </c>
       <c r="H25" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Технология</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1109,31 +1197,35 @@
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>base</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1330217326376544549</t>
+        </is>
+      </c>
       <c r="H26" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ИЗО</t>
+          <t>ART&amp;DESIGN: Визуальные искусства</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1141,23 +1233,21 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Музыка</t>
+          <t>Sk Культура</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1165,23 +1255,21 @@
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Творчество. Деятельность. Служение обществу (CAS)</t>
+          <t>Sk-биомед</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1193,17 +1281,17 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Алгебра и начала математического анализа, геометрия</t>
+          <t>Sk-инженерия</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1215,19 +1303,17 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>188</v>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Индивидуальное исследование 
-(проект)/Дипломное сочинение 
-(Extended Essay)</t>
+        <v>69</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sk-инженерия</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1239,21 +1325,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Физическая культура</t>
+          <t>Sk-математика</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1261,21 +1347,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Астрономия (ОЗО)</t>
+          <t>Sk-русский язык и литература</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1283,21 +1369,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Химия (ОЗО)</t>
+          <t>Академия Яндекса</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1305,17 +1391,17 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Биология (ОЗО)</t>
+          <t>Английский язык</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1327,17 +1413,17 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Физика (ОЗО)</t>
+          <t>Английский язык (Б)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1349,17 +1435,17 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Информатика (ОЗО)</t>
+          <t>Английский язык Б (Б)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1371,17 +1457,17 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>История (ОЗО)</t>
+          <t>Английский язык Б (У)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1393,21 +1479,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Обществознание (ОЗО)</t>
+          <t>Английский язык: практика речи</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1415,17 +1501,17 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>География (ОЗО)</t>
+          <t>Астрономия (Б)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1437,11 +1523,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Русский язык (ОЗО)</t>
+          <t>Астрономия (ОЗО)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1459,17 +1545,17 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Визуальные искусства (У)</t>
+          <t>Бизнес и менеджмент (Б)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1481,17 +1567,17 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Визуальные искусства (Б)</t>
+          <t>Бизнес и менеджмент (У)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1503,17 +1589,17 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Математика (У)</t>
+          <t>Биология (Б)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1525,17 +1611,17 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Математика (Б)</t>
+          <t>Биология (Б)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1547,17 +1633,17 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Информатика (У)</t>
+          <t>Биология (ОЗО)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1569,11 +1655,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Информатика (Б)</t>
+          <t>Биология (У)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1591,17 +1677,17 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Химия (У)</t>
+          <t>Биология (У)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1613,21 +1699,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Химия (Б)</t>
+          <t>Введение в естественные науки (на английском языке)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1635,21 +1721,21 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Физика (У)</t>
+          <t>Введение в программирование</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -1657,21 +1743,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Физика (Б)</t>
+          <t>Введение в языкознание</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -1679,17 +1765,17 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Биология (У)</t>
+          <t>Визуальные искусства (Б)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1701,17 +1787,17 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Биология (Б)</t>
+          <t>Визуальные искусства (У)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1723,21 +1809,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Глобальная политика (У)</t>
+          <t xml:space="preserve">Вокальный ансамбль </t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -1745,21 +1831,21 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Глобальная политика (Б)</t>
+          <t>Вокальный ансамбль на иностранных языках</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -1767,21 +1853,21 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Психология (У)</t>
+          <t>Вокальный ансамбль на иностранных языках</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -1789,11 +1875,11 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Психология (Б)</t>
+          <t>Всемирная История (Б)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1811,11 +1897,11 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Бизнес и менеджмент (У)</t>
+          <t>Всемирная История (У)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1833,21 +1919,21 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Бизнес и менеджмент (Б)</t>
+          <t>Второй иностранный язык</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -1855,21 +1941,21 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Теория Познания (Б)</t>
+          <t>Второй иностранный язык</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -1877,17 +1963,17 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Всемирная История (У)</t>
+          <t>Второй иностранный язык (Б)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1899,17 +1985,17 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Всемирная История (Б)</t>
+          <t>Второй иностранный язык (У)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1921,17 +2007,17 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Экономика (У)</t>
+          <t>География (Б)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1943,17 +2029,17 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Экономика (Б)</t>
+          <t>География (ОЗО)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1965,17 +2051,17 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Второй иностранный язык (У)</t>
+          <t>Глобальная политика (Б)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1987,17 +2073,17 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Второй иностранный язык (Б)</t>
+          <t>Глобальная политика (У)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2009,21 +2095,21 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Английский язык Б (У)</t>
+          <t>Графика,  Диджитал дизайн</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2031,21 +2117,21 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Английский язык Б (Б)</t>
+          <t>Дискуссионные вопросы истории</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2053,43 +2139,45 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Родной язык и родная литература (У)</t>
+          <t>Драма</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Родной язык и родная литература (Б)</t>
+          <t>Драматическая студия</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2097,21 +2185,21 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Язык А: Литература (У)</t>
+          <t>Живопись в дизайне, SK Среда</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2119,21 +2207,21 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Язык А: Литература (Б)</t>
+          <t>Занимательный английский</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2141,17 +2229,17 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вокальный ансамбль </t>
+          <t>ИЗО</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2159,25 +2247,27 @@
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Сколково BAND</t>
+          <t>ИЗО</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2185,17 +2275,17 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ART&amp;DESIGN: Визуальные искусства</t>
+          <t>Изучаем языки мира</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2207,17 +2297,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>143</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Курс общей физической подготовки</t>
+        <v>188</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Индивидуальное исследование 
+(проект)/Дипломное сочинение 
+(Extended Essay)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2229,17 +2321,17 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оздоровительное плавание </t>
+          <t>Индивидуальное исследование (проект)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2251,21 +2343,21 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: География</t>
+          <t>Информатика</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2273,21 +2365,21 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Информатика</t>
+          <t>Информатика (Б)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2295,21 +2387,21 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Литература</t>
+          <t>Информатика (Б)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2317,21 +2409,21 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Русский язык</t>
+          <t>Информатика (ОЗО)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2339,21 +2431,21 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: История</t>
+          <t>Информатика (У)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2361,21 +2453,21 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Обществознание</t>
+          <t>Информатика (У)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2383,17 +2475,17 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Английский язык</t>
+          <t>Исследовательская деятельность</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2405,21 +2497,21 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Физика</t>
+          <t>История (Б)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2427,21 +2519,21 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Химия</t>
+          <t>История (ОЗО)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2449,21 +2541,21 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: Биология</t>
+          <t>История (У)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2471,17 +2563,17 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Углубленное изучение/подготовка к олимпиадам: решение математических задач</t>
+          <t>История и культура англоязычных стран</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2493,17 +2585,17 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Психология</t>
+          <t>Керамика</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2515,17 +2607,17 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Русская стилистика и риторика</t>
+          <t>Коммуникативный курс второго иностранного языка</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2537,17 +2629,17 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Второй иностранный язык</t>
+          <t>Курс общей физической подготовки</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2559,17 +2651,17 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Экономика</t>
+          <t>ЛФК</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2581,17 +2673,17 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Основы программирования</t>
+          <t>ЛФК</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2603,21 +2695,21 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sk-инженерия</t>
+          <t>Литература (Б)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -2625,21 +2717,21 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Индивидуальное исследование (проект)</t>
+          <t>Литература (У)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -2647,17 +2739,17 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Теория познания (Б)</t>
+          <t>Литературное чтение</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2669,17 +2761,17 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Практикум по английскому языку (Б)</t>
+          <t>Литературное чтение на родном языке</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2691,21 +2783,21 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Физическая культура (Б)</t>
+          <t>Мастерская журналистики</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -2713,21 +2805,21 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Химия (У)</t>
+          <t>Мастерская начинающего автора</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -2735,17 +2827,17 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Химия (Б)</t>
+          <t>Математика</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2757,17 +2849,17 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Астрономия (Б)</t>
+          <t>Математика (Б)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2779,17 +2871,17 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Физика (У)</t>
+          <t>Математика (Б)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2801,17 +2893,17 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Физика (Б)</t>
+          <t>Математика (У)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2823,17 +2915,17 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Биология (У)</t>
+          <t>Математика (У)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2845,21 +2937,21 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Биология (Б)</t>
+          <t>Многоголосное пение</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -2867,39 +2959,41 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Информатика (У)</t>
+          <t>Музыка</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Информатика (Б)</t>
+          <t>Музыка</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2911,21 +3005,21 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Математика (У)</t>
+          <t>Музыкальный ансамбль</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -2933,21 +3027,21 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Математика (Б)</t>
+          <t>Музыкальный ансамбль</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -2955,21 +3049,21 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>География (Б)</t>
+          <t>Наука опытным путем</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -2977,11 +3071,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Обществознание (У)</t>
+          <t>Обществознание (Б)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -2999,17 +3093,17 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Обществознание (Б)</t>
+          <t>Обществознание (ОЗО)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3021,11 +3115,11 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>История (У)</t>
+          <t>Обществознание (У)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -3043,21 +3137,21 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>История (Б)</t>
+          <t>Оздоровительное плавание</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -3065,21 +3159,21 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Английский язык (Б)</t>
+          <t>Оздоровительное плавание</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -3087,21 +3181,21 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Родная литература (Б)</t>
+          <t xml:space="preserve">Оздоровительное плавание </t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3109,17 +3203,17 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Родной язык (Б)</t>
+          <t>Окружающий мир</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3131,21 +3225,21 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Литература (У)</t>
+          <t>Основы компьютерной графики</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3153,21 +3247,21 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Литература (Б)</t>
+          <t>Основы программирования</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -3175,21 +3269,21 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Русский язык (Б)</t>
+          <t>Основы программирования</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -3197,21 +3291,21 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Социально-исторический клуб «Время, события, люди» </t>
+          <t>Основы религиозных культур и светской этики</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -3219,17 +3313,17 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Развитие личностных способностей</t>
+          <t>Персональный проек</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3241,21 +3335,21 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Дискуссионные вопросы истории</t>
+          <t>Практикум по английскому языку (Б)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -3263,17 +3357,17 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Современное общество: вызовы, задачи, перспективы</t>
+          <t>Практикум по химии</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3285,17 +3379,17 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Шахматы</t>
+          <t>Практическая биология</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3307,17 +3401,17 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ЛФК</t>
+          <t>Практический курс «Совершенствуй свой английский!»</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3329,17 +3423,17 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Спортивные игры</t>
+          <t xml:space="preserve">Проектирование </t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3351,17 +3445,17 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Оздоровительное плавание</t>
+          <t>Психология</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3373,21 +3467,21 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Графика,  Диджитал дизайн</t>
+          <t>Психология (Б)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
@@ -3395,21 +3489,21 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Фотоискусство</t>
+          <t>Психология (У)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -3417,17 +3511,17 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Живопись в дизайне, SK Среда</t>
+          <t>Развитие грамотности</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3439,17 +3533,17 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Скетчинг, Архитектура</t>
+          <t>Развитие личностных способностей</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3461,17 +3555,17 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Театральная студия</t>
+          <t>Развитие познавательных способностей и личностных качеств</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3483,11 +3577,11 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Эстрадно-джазовая студия</t>
+          <t>Решение математических задач</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -3505,17 +3599,17 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Эстрадная студия. «Ступень к успеху»</t>
+          <t>Ритмика</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3527,21 +3621,21 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Вокальный ансамбль на иностранных языках</t>
+          <t>Родная литература (Б)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -3549,21 +3643,21 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Многоголосное пение</t>
+          <t>Родной язык</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -3571,21 +3665,21 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Музыкальный ансамбль</t>
+          <t>Родной язык (Б)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G138" t="inlineStr"/>
@@ -3593,21 +3687,21 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Персональный проек</t>
+          <t>Родной язык и родная литература (Б)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G139" t="inlineStr"/>
@@ -3615,21 +3709,21 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Экспериментальная физика</t>
+          <t>Родной язык и родная литература (У)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -3637,11 +3731,11 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Практикум по химии</t>
+          <t>Русская стилистика</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -3659,17 +3753,17 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Химия и жизнь</t>
+          <t>Русская стилистика и риторика</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3681,21 +3775,21 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sk-биомед</t>
+          <t>Русский язык</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -3703,21 +3797,21 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Практическая биология</t>
+          <t>Русский язык (Б)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -3725,21 +3819,21 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Юный натуралист</t>
+          <t>Русский язык (ОЗО)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -3747,11 +3841,11 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Наука опытным путем</t>
+          <t>Скетчинг, Архитектура</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -3769,17 +3863,17 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Введение в естественные науки (на английском языке)</t>
+          <t>Сколково BAND</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3791,11 +3885,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Основы компьютерной графики</t>
+          <t>Сложные вопросы информатики</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -3813,17 +3907,17 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Сложные вопросы информатики</t>
+          <t>Современное общество: вызовы, задачи, перспективы</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3835,17 +3929,17 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sk-инженерия</t>
+          <t xml:space="preserve">Социально-исторический клуб «Время, события, люди» </t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3857,17 +3951,17 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Проектирование </t>
+          <t>Спортивные игры</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3879,17 +3973,17 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Академия Яндекса</t>
+          <t>Спортивные командные игры</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -3901,21 +3995,21 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Основы программирования</t>
+          <t>Творческая мастерская</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -3923,17 +4017,17 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sk-русский язык и литература</t>
+          <t>Творчество. Деятельность. Служение обществу (CAS)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -3945,11 +4039,11 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Введение в языкознание</t>
+          <t>Театральная студия</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -3967,17 +4061,17 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Русская стилистика</t>
+          <t>Театральная студия</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -3989,21 +4083,21 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sk-математика</t>
+          <t>Теория Познания (Б)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -4011,21 +4105,21 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Решение математических задач</t>
+          <t>Теория познания (Б)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -4033,17 +4127,17 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Мастерская начинающего автора</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Алгебра и начала математического анализа, геометрия</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4055,17 +4149,17 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Мастерская журналистики</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Английский язык</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4077,17 +4171,17 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Коммуникативный курс второго иностранного языка</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Биология</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4099,17 +4193,17 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Практический курс «Совершенствуй свой английский!»</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: География</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4121,17 +4215,17 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>История и культура англоязычных стран</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Информатика</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4143,17 +4237,17 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Драма</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: История</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4161,23 +4255,21 @@
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="n">
-        <v>7</v>
-      </c>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Второй иностранный язык</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Литература</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4189,17 +4281,17 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Английский язык: практика речи</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Обществознание</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4211,17 +4303,17 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Развитие познавательных способностей и личностных качеств</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Русский язык</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4233,17 +4325,17 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Хоровая студия</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Физика</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4255,17 +4347,17 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Керамика</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: Химия</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4277,17 +4369,17 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sk Культура</t>
+          <t>Углубленное изучение/подготовка к олимпиадам: решение математических задач</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4299,21 +4391,21 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Вокальный ансамбль на иностранных языках</t>
+          <t>Физика (Б)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -4321,21 +4413,21 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Музыкальный ансамбль</t>
+          <t>Физика (Б)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
@@ -4343,21 +4435,21 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Театральная студия</t>
+          <t>Физика (ОЗО)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
@@ -4365,21 +4457,21 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Драматическая студия</t>
+          <t>Физика (У)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
@@ -4387,21 +4479,21 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ЛФК</t>
+          <t>Физика (У)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
@@ -4409,21 +4501,21 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Оздоровительное плавание</t>
+          <t>Физическая культура</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
@@ -4431,21 +4523,21 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ритмика</t>
+          <t>Физическая культура</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
@@ -4453,21 +4545,21 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Спортивные командные игры</t>
+          <t>Физическая культура (Б)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
@@ -4475,17 +4567,17 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Введение в программирование</t>
+          <t>Фотоискусство</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4497,21 +4589,21 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Шахматы</t>
+          <t>Химия (Б)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
@@ -4519,21 +4611,21 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Исследовательская деятельность</t>
+          <t>Химия (Б)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G181" t="inlineStr"/>
@@ -4541,21 +4633,21 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Развитие грамотности</t>
+          <t>Химия (ОЗО)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
@@ -4563,21 +4655,21 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Изучаем языки мира</t>
+          <t>Химия (У)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G183" t="inlineStr"/>
@@ -4585,21 +4677,21 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Занимательный английский</t>
+          <t>Химия (У)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>extra</t>
+          <t>base</t>
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
@@ -4607,21 +4699,21 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Творческая мастерская</t>
+          <t>Химия и жизнь</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
@@ -4629,21 +4721,21 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Физическая культура</t>
+          <t>Хоровая студия</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
@@ -4651,21 +4743,21 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Музыка</t>
+          <t>Шахматы</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
@@ -4673,21 +4765,21 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ИЗО</t>
+          <t>Шахматы</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -4695,21 +4787,21 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Основы религиозных культур и светской этики</t>
+          <t>Экономика</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -4717,17 +4809,17 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Окружающий мир</t>
+          <t>Экономика (Б)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4739,17 +4831,17 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Информатика</t>
+          <t>Экономика (У)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4761,21 +4853,21 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Математика</t>
+          <t>Экспериментальная физика</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -4783,21 +4875,21 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Английский язык</t>
+          <t>Эстрадная студия. «Ступень к успеху»</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -4805,21 +4897,21 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Литературное чтение на родном языке</t>
+          <t>Эстрадно-джазовая студия</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -4827,21 +4919,21 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Родной язык</t>
+          <t>Юный натуралист</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>base</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
@@ -4849,17 +4941,17 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Литературное чтение</t>
+          <t>Язык А: Литература (Б)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -4871,17 +4963,17 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Русский язык</t>
+          <t>Язык А: Литература (У)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
